--- a/BOM_Board1_PCB1_2023-03-17.xlsx
+++ b/BOM_Board1_PCB1_2023-03-17.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_PCB1_2023-03-17" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2023-03-18" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>No.</t>
   </si>
@@ -112,7 +112,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>62Ω</t>
+    <t>42Ω</t>
   </si>
   <si>
     <t>R1,R2,R3,R4,R5,R6,R7,R8</t>
@@ -121,13 +121,10 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>0603WAF620JT5E</t>
-  </si>
-  <si>
     <t>UNI-ROYAL(厚声)</t>
   </si>
   <si>
-    <t>C23222</t>
+    <t>C23168</t>
   </si>
   <si>
     <t>5</t>
@@ -676,16 +673,16 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -693,7 +690,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -702,10 +699,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -725,7 +722,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -734,10 +731,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
